--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/9_Ardahan_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/9_Ardahan_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6FA89A-14BF-4BD5-B0EA-3EA6D0B6A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDABE531-882B-42C6-A7C7-06D4A66FD81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{CCB1AEDE-272F-4C81-9777-1C5D52E0EC6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{CF5AE67D-4297-41D7-B8D8-08F86186219A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="113" r:id="rId1"/>
@@ -935,15 +935,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3BAEED33-0DD6-4C7C-8B05-08EA30E5130C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{73794AF8-0817-4B32-B3AB-1BF9318AC3C5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{55D0437C-AECE-445B-AA6B-EFA061FEC64D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{8B3CF516-9CD5-4AF8-9515-954DC529CA8E}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{B4F04FC5-68C6-4A43-8A9F-7134D7FFB045}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{5C62F875-6B3A-40F2-8708-03E584FD599A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{E74B4117-C40E-490A-B3AC-4740ED53E96D}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{9AE05D86-0A63-40C4-B053-2363D7624C60}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{395D0F27-9BC4-4DE1-86C7-9F7B92B04A81}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2D0E6982-9A0D-4DFD-BF41-9B94084E415A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D592AE9A-B477-4D53-A42E-2DBFC5D650E0}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{122B5452-55A7-49F7-9092-1A81EB44A412}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{44FEF1A7-3D05-4297-A466-69EDC3B9F911}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{6B6D1A03-3C52-4E88-B27A-86DC9F7C1A34}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{1F89E834-404C-4EC7-8123-32DD38949138}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{C0DAFF94-6E3D-40CC-AC86-46690E10FD6A}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{55D8ECEB-1FEB-4AE8-84EF-62FFDFE65AAE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{E7BF770B-A0DF-4433-9968-5E9BB78D9D7E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA09EB7A-B762-4224-83EE-E41834817693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2496FEB-BA38-4983-B833-158A37061CCB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2566,18 +2566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C95D463A-3209-44B4-BA77-F4950FD93742}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{558DE8F6-F222-43FE-A597-DC9D486A3AC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44E660CB-73D3-4984-9F9B-3527BE7AAB81}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F395EA8-A931-45FE-A334-0ED600E65EB6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25A7FA2E-3E6D-45BC-B92A-5923895DE844}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5962A4C8-7731-46F0-9D97-CE09F348FC62}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{EFC30DC7-2A43-44F3-B83F-515E8B215261}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53CE4C4B-F888-4EBE-838F-02C6A4B5ACA3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D23F9585-A25A-48C1-B5D9-D149BD4A086F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{062F109F-CD3E-4C77-A3F4-CC081F4822EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C2EDF8B-E108-4D02-AF48-673CF1B118D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99985602-9B0B-451C-9544-F14276228DFC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81F640DF-D7A2-4AED-A1AF-F4388660EB12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B14D5BE-E6CC-4B07-8F76-0309A9EDB325}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26361B21-1A33-45A0-A381-CBAC91EB223D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8EB192B-81AA-4B5C-92FB-0343E46B1099}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D116C56-C32C-4E80-ADF8-7639DE011326}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C601E12A-BEF2-474F-886C-28D7F86C241E}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BE65826B-FFAA-48A9-8DC4-10F7900A2CA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49146A55-418D-493F-85F7-74D52B8F8BF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{237E8B6A-8C18-469C-9AE0-7850BC651B1B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BD7EC793-9A41-4E48-AAE4-D892E184AD70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66AEF884-22C2-4135-9DC7-182B217ED88B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F29FD28-038F-4B6D-9465-A21983FCE859}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2590,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF7F1E-8711-46E7-8B46-78247410779C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8878850-BD65-46F9-8702-0DDBE80C859A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3875,18 +3875,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56B05DF4-AD49-4954-967D-9D9328413E7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD6593F2-5020-46F3-8439-3A791AB63C70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{698666F4-7952-4B8A-B050-37E7138FB0C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C99ECC21-83EC-43DC-8C5C-B0FF2330A05F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{121CA154-FDF3-40AB-A502-E499A16A2212}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFC0295F-2500-4C0D-8ED9-47D4D75F4D08}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8EE0C203-731E-4303-A2F5-A037FC6DA037}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B6FEB33-E6C0-431A-9CD5-AA5CA0469351}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8622A1E4-8E7C-4714-89B8-E2507FFB5387}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9634A476-B957-4750-9DE8-75B79CFA44FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F478FAB3-80DA-475E-B7D3-FDFC0AB7236D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C728F0C7-3453-414E-918C-BC9F0D5A886D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D28EEE37-C793-4204-A827-AC2679EE29B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F215838-CBBE-4236-BF45-181239180458}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7FAE2E18-5192-4A3A-AE9E-D15AC5C1E8ED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{866C7434-B7CD-4C51-9211-6D55E0DB6186}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89ECDC0D-1070-458D-8129-F24468FB2D8D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E31AC3E7-D85F-4492-97C0-755AF2986F62}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{FD417806-0E04-43B8-A29D-DF4EFDBB1413}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CA16F55-0E4C-4BCE-8E48-2C189AC5C5F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8ED60FCC-0451-45BA-A4AD-3C9124326A46}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0A06797E-44A0-48C2-B480-14FEBCBE0C31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8C5B567-D0A0-4174-89F4-2ABD7530E989}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8634D00-D33A-45FA-9563-8D7D9D257015}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3899,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBBE74-9F44-4C6B-AE02-056F6779D4B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1627FCC-6471-4C87-962E-54BCC9133304}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5180,18 +5180,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3888DA7-1711-4C57-9596-D3380BDE512F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5EF2AF6-0E76-4C96-BA55-AB7D0509570E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57A88A10-95D5-4CA6-9425-59AF64EDF4CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A6F9EAA-3280-4452-89B6-413916313C97}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33C0C554-23D5-4B80-8C7A-E40E5B1643FB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CB47E7FB-7E70-4592-80C4-BE13DF69B0C4}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{FC953324-9C9E-45C2-AB77-D4CC9BC0F624}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{210C77AB-7B41-4BF9-B38F-F79EB898560F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35BBE559-4AA7-4504-8018-178F6A0A416F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2F90BFA2-EE62-4DE7-A817-6FC9C71132E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AB30E78-55D6-4C20-8370-7046AEAAFC49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6570495-2137-4460-89FB-F82B77041CF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EA0FB55-F8D2-428F-9D9C-28E46B66A1AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF18B21E-439D-48AD-B88E-D3929FA93B02}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{243831E7-2992-4C65-9F95-8B517E43B118}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{383FEF85-F94C-4482-831B-CC7E8EE2CE04}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67679B4E-3452-483C-9A92-0AD7FD5667A7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A70103C-A3BC-4C8C-878F-35E21F33598D}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{755FC379-FE50-434D-9D1C-689D62B906C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F8D09CD-92CA-4F15-ADE4-AAE24EA72486}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D6C0096-D482-457E-9B31-E45845E01D45}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F4D83FDB-5DC5-4AA4-B0FC-BC2BCB9D566D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D6CC097-50BB-429E-B676-94FA2747E04C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD14F457-8C10-4821-907C-29B6F5ABE98B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5204,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672B85BE-96EA-4243-A6B1-A6754DFFE288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7E3C53-E98A-49AC-B950-CB54816083CD}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6475,18 +6475,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9EBB829-9028-44E8-B271-5D4510BC6E51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2258963E-2E77-435E-B541-8BC4FDD73597}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E59BC95D-9DC2-4371-B8A3-FC1F909F05A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41585011-0282-4C2C-95D7-6C99884CFF9D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86629507-0658-4F4C-BB0C-6B1A2A81BB16}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AA28B8D1-3EEB-4FC1-A9D5-BB3BD59483E6}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F0B6F131-2F3C-4EA6-9E5C-BE129DD71B9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF207925-2371-4524-8266-B65FF4E7D1DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAEEF944-4A48-4387-A749-37303F528B8D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{367A4A9B-B4D0-454D-B6AF-0C0D202FAEF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B82A10A5-051A-4F5D-ACB7-5E0FF309AE4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B739CAD8-CEB2-4AF1-92E2-27DF42C28EEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABA4C152-3D8B-4588-B0BF-701869655A2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6961F854-58DE-4CFC-8010-437CCF5D8C1A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FFEB786-F5B5-49D5-A48C-C48B2E1AC184}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{732E7821-E8F0-4685-A1B9-CC0918B0CFCB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAB126C5-4BB0-45AF-9DEB-C1BA8F284F2B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B6875038-0EB7-4FE0-99BC-81B7C48C4217}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4DC081BE-21C6-4F97-A701-1F2F90852667}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C35D0D54-1DE3-4782-B937-98A094366126}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F35FD4F-85D6-462E-87D4-B32DE541989F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C1FDFD43-3630-474E-B25A-711397803A92}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D17B4E33-BC48-4786-8B51-777496D08635}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F963A0B5-D9D3-4CAC-ADA1-51155FF6A1E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6499,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD68D5EE-7756-452A-A238-CF3A027255A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F19EC29-AA36-4FC0-83FB-A98FD990BC63}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7752,18 +7752,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B6C230E-B94C-4AD3-B047-5F791AF3E329}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62573047-3A01-4BAE-9B1A-B122362ADECE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C6E5504-4071-481B-B6DC-1E690F527970}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE2D9AC6-DAC6-4F51-B05F-0F3F09246EBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1540C0D7-7BA7-4154-ADBD-4B15AA9D72E4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{847845C7-AD89-452D-9053-B7C5EEDE300F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{ACF7090D-556D-48F2-804B-05A34A24441C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D365D2D-FCA3-42B4-A968-62A9BD620C8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25088125-2A8E-49D6-9F50-355FB71B6DDA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F92BBE83-EBEE-4BD3-97E1-C9743C6691D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3AABBA3-44EE-4223-A6DB-B218A5893A56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4EA9317B-0929-4B8A-B970-0A149D1F05B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8224676-03CC-4268-B559-314E7D7D20C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50F29DFA-89CF-48AD-9A2F-87650D3C5D4C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FBF7EF89-76B6-47D1-B995-EB4FC5E4EB38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D09B2E57-775C-416B-BB18-2B64492E4AD3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50D3DE44-F367-4514-9B71-8824B0B8D13B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68589649-8ECD-4E83-B596-1CFB6C240A95}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A13B9610-AA3E-4985-84AE-772ABCB2998D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A9BA45D-A859-4E42-9676-A312A7E37442}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90C9C12F-9134-4395-8B7A-A8F817567983}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C884C181-FC79-4319-8D13-AFEFA9DACD66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB05826C-C6A3-4C9D-A922-4C6427595A53}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBB7BE8E-BF03-4219-AE50-111E093C482A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7776,7 +7776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A44626-BCD5-4587-A623-CFA71E06495D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E815075-4B0A-4E03-8EB5-8DEB70D61493}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9029,18 +9029,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58662C35-671C-44CA-ADB0-23453644C50E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA05D809-3DC6-4F4C-B700-535F15BB7F17}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC0F13E2-30BC-4607-B929-1EE8D1888547}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E03EC39-36FF-470B-9CB3-040D1664BD59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEE0E767-5D11-4EF2-B57A-7E7DEBE50811}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{42A57C02-730D-402C-A72F-40A8CC21653B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7B2ECCE0-4146-43E5-B0B8-CCD4CF1B3309}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1410515-5AE5-4BA6-831C-2E5D14477121}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{639EC042-B8EB-4A47-9509-9252338E13C8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0ACF7091-25EC-4FD9-86AA-E81D3B8711C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2840AE6F-FD8A-4ABD-8977-CB5E0BE839EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CC2A275-54CA-4F02-9C01-E047086ED39A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{958B4430-DEEA-4EE0-9032-E74157C9365D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E5C432C-ED2F-4877-82DB-3CBCED9BBFFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F02BF2D-0F6A-437B-A7C5-ECA5A9623D41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7EF03A1-64CA-477B-B360-821EE94E1138}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB60FBC1-F36B-4EED-A014-C8C76D6B3B72}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1509101F-18A9-4052-A5A8-9DBF436CCFE3}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{17F31A57-10AE-41B1-9090-53B0BD08F502}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C945258-EA96-48A0-829B-2E986284A6D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{812C0DC6-EE55-4D50-9DFF-00C87D21070C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{632D6CCF-7506-4EB7-86EE-50ABD8922F85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27501D01-0B0A-4A6E-8446-139D38489AC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{480FD653-9D96-43F1-99C8-DB08BAECA08F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9053,7 +9053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C986571C-C4B2-495D-B4FC-E64C828398CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EF41B-8D9C-4C0D-B2CC-09F494D85AFD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10306,18 +10306,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3F91EF6-B553-490D-B909-A827EB613822}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9AF3CC6-7FB5-4259-873D-76717BC62281}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{463F6ACA-2271-46DC-8EB3-95D3AF4BD23A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C186CECA-A032-4162-987E-84927C940CE2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD58CB08-CCBE-42E9-A672-570BFC1469A7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D844FED-7C1A-4C52-BF2A-EC938B312CFC}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2BB25159-2246-4025-B7E1-56B2707F84DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17323B9D-D64C-41E9-B9A1-5D7FDC33A782}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73902797-8AC7-4CA6-84B3-E799561ED982}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D6C7528A-3D42-46D6-A48E-8980786FEE71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{038CD32F-0699-43B3-B8B2-DFE69B33FF43}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89B15102-BB30-416C-9927-5634E05EB474}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E50F0C0C-75F7-49EE-8685-C73EC1721096}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9721D2A3-2215-448A-97B2-928BC6C1556C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8CDE3407-0306-4BBC-B156-14913C549171}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{186F3A6C-D273-4352-93D9-E2710D9C9095}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44FCEA3C-6848-4A8D-856C-A4560E004080}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8AB1A212-5FC8-452C-9855-9D392976163F}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6C8AF036-2A14-43B2-8938-AC2A98460DFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCA91AAD-C4C9-473F-8EA7-5D4141CAF6F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4478FE77-C01F-4E63-A42B-96D09ED727E9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{156B2110-3022-47F5-AE41-FE78D41545BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFF679C5-B9A4-4F98-905C-7BF7CFC5A0E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40E87653-2058-48DA-99C2-E1F573FD7789}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10330,7 +10330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF2FD89-696F-4DD0-AF94-4EFEE66BED51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0C770C-E32B-4222-9BC1-924C1EBCD0B8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11583,18 +11583,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94F78E34-FB35-4E47-90BC-958AA4B43B43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A08B3236-5DAD-4235-AA1E-5FEE4601450A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BF8CA12-B0CF-4B8A-85A7-390BF3C0FAF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33D6405F-F3D1-420A-AEB5-6B06786B7901}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABE03F3D-A70B-444A-B015-B83391C11B87}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D7B0022D-F94B-4222-9A9B-B493BB41D2C2}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F1026499-B709-4DFE-93B8-AC6999D7019B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BD90039-C6C5-4EAA-9C05-EC156E71A6C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6623DB7-0901-43C4-9CC1-1F1F0803A34C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CB0ED6F5-79C9-4C38-ABF5-B2A042E31A8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0529563B-5CB2-4282-9733-F6CF776943DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D185048-4F58-468D-BFC3-BAAD98464760}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5299956B-B95B-46ED-8922-6720AF34875F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{288C4D9B-3219-463C-A49C-8907B6068AAE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6239D504-DEDE-4FC8-AEF6-9833B5BAED63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CEC1BC45-9BEC-4A14-A347-B0FF956DCF3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{463FDEA0-FF5D-439D-B3FD-A25261BFEC62}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E8BAE041-BA52-4667-BFD7-81D633497956}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E6C18152-F9AE-4049-A6CB-DBAC1678AB12}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE5EE4D2-AC33-429E-B7FB-1D1CBF68F4BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A634303-3989-4B6C-98E5-CD8383CE15A8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52093A9C-2F1D-4F6B-96A6-0EEE131A59B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFA83788-6C92-4C41-B71D-24BE07FD1C59}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBE2EA4F-A8BB-45C8-87ED-CE70A4468C39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11607,7 +11607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736C9F95-61D4-41C5-A9C7-ABC6BE5B474F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12E06F9-5FF9-4BF1-B597-793DD7F91C3D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12852,18 +12852,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B6CE835-81FC-4369-87A0-ECE8F48FC6ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F44C592-5FEE-4734-ABDC-14E0786523F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D0D51BF-D39F-4D98-90B6-AA98C83942BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4BF47F9-9537-4C44-9274-C726E7B51F43}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AC0EA93-11FA-4B8A-8183-CD591522B35F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B907DD07-A301-479B-958A-43CED3CE8168}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7FA81530-84FD-465F-823B-5B444C542EA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A8E81A2-2F25-4970-8D9E-79843A879DBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF0A78E6-915F-483D-9760-7F765AC2CB24}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{96E8DA4D-6815-4D78-9EE1-6789D3FA7AAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEDA4AC2-9E45-4C59-A770-09C4D404369D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F466E2F-77CE-46A0-84AE-D8514988140E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{830F3211-AB58-4745-A493-6B55CCFC56A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C13DF28-8162-4E83-80ED-E44C15D48F8A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3F6E2F6-C2F8-486E-99E3-E12C520114BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DB567BA-1D93-42EA-A7D2-EC931C58BD15}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6F238A7-F5BE-4C08-A75C-B3BD2A83F685}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45BF9474-A5C3-4D7C-B1CA-FAFFB2CE9E50}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{14CF558C-D445-4985-AC91-81177CD1D957}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D4F10DD-CE56-4F21-868A-4B5CE21A1FDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{890C8A01-E0DC-4C62-89DC-0D6D48130BC4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5546462D-8B0A-4D39-91F2-0536822A9433}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15C6BC47-8C01-4185-8471-FDAB26177972}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52D34E25-A85F-4586-814D-7FC17D75A62A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12876,7 +12876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDDFDE1-CD56-463F-86F7-08DBCD0F1790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024645FC-FD7A-4527-A465-DC81B33EFC17}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14167,18 +14167,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51C3FE26-7E0F-49D9-ACB3-7C472D79ACBF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9F81004-5913-40B4-9A0A-B4DAE51AE81E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8ADB44B4-E86C-41D3-8E95-089022642311}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F60F6B1-8230-4671-AE6C-DE0754806784}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C3AEC66-0AED-4BFB-9E76-E58001090ED7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CF3C5F81-4C95-4545-B589-E05986466A64}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8B76A60E-550C-495C-BFD8-69ABD543629D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAAE06F7-8360-484B-8B91-B65D564011DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{058FCA28-3633-4DB8-89C4-C0743B5E10D1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{29DB5CB5-11AC-4CAB-AD4C-D98397121E3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D4202A5-C03C-4307-94CB-A97AC4031821}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B8AAD8F-F2F7-46DF-84AF-4D8E928CD9B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EEAAB5E-1016-47C3-AAE7-E54DB3153B1A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93F8746D-73B1-4E25-9D3B-069BC7798E28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FFFEC7F7-F958-468E-98E7-43960AE14151}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F4D4778-7191-4DBB-948B-A67A8713EB53}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCEE58C3-E795-45BB-A2DD-01DB915A9EFA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F8F9E0BD-C2EB-420A-995E-5E6FC6B83D0A}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7251A19E-0289-4CC6-A74A-1BF307DBC961}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C462A06-D4CD-4390-8588-7F14FFCFDF2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F0F9D3D-0CF0-4F83-84D5-0AF86CD322B3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F6089B8E-1EC8-4D83-9BB0-7ECC980D09C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{686A6890-18D4-4F95-8F20-7CDEBDAC3443}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E558663F-1319-43E0-B12D-A77C0F47E3F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14191,7 +14191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3FF1AD-2010-4EEB-A98F-C89645B55B6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499C2B4-C0AB-42ED-8F7B-0BC3CA9EC411}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15476,18 +15476,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ED10180-0887-42A5-A795-41D1565789F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB65B09E-DEAA-4420-A3CD-751389BC3C5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A32B4BF-0EF1-46CC-A197-511CDDE218CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68815AED-A1FA-43FB-9B59-C63DEC2E609A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0093F71-6FB9-4873-81D8-CEC69669DF83}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C2EB0734-745F-47F6-A304-80CC9B27B262}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{46DD8FBF-926E-4BF6-AFC6-397CFE747D1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{933BE93B-EC02-4A5F-85C2-00885E074210}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B1AC6F7-C048-4395-87AF-68A114F289B4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0849748E-C408-422F-8FB1-6989479D9D26}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36572B09-2388-42B9-8CDE-71DAA7286357}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FFCD5DA-652A-46C4-AC4C-F2F94195F096}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E835717E-8DE7-4905-AAD1-FE477FFB581A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2EAFA7E-B9B4-4490-B8C9-77AD1479D13C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{53AF07CA-925C-4438-B960-1D12866A6D20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01889F46-6699-413C-A4C8-A971132F1B4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{198D3552-E1D9-4925-AFC1-6FF558ED4DAE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{00647C69-77D6-4548-A720-343347E9F217}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0E9445D3-5F1E-4645-9E6E-39ECF97EE025}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0AE0599-042C-47DC-B4DE-9ED5512F497D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{453B9B54-E8AF-4173-8B08-E251C9F64F6F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6F319D0C-8D9F-46E2-8EAA-78A29B47E6ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8017A5C9-7CDA-46F2-89FC-F830B55363C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CCE347B-9C05-403E-AC98-D30E0E7105C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15500,7 +15500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BDE503-9694-4B5A-B7DD-264F62DA3D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45FE0B-043F-45FB-9783-B6329FD0165A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16785,18 +16785,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15DF29FB-8300-4CB3-8405-697FC239ED55}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48330177-8F30-4FAA-9FC5-A25D20F2C313}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44E0EC5F-520D-409D-88C4-B2DB5A72EB7E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A79250C5-1053-40F7-9F89-F19CD386E831}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CDE048D-BE94-48E1-828E-39671DEA1661}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E8D270C-F72D-4935-8A5D-8D65BD66D636}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{FFA7C48D-EFD9-4C4D-8878-2103C0CA8247}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DAE573F-1222-4B11-B348-CAB35BDB27B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5B07A53-EADD-4E48-AC2C-9B42AD810A99}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{24BBBD86-97E0-41DA-91DF-404B8F4B3FB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6753355-158B-4534-B11A-BDC8B94745F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4313556-0CB8-4594-AA62-78D8EB5D57DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD5696D7-A1CC-43AF-AF06-F45C42A0A802}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AB3ECC3-FBF5-4691-A75F-6FCAF204B0F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{341A9DA8-342F-4D30-9D8B-6FC86EC7C9D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{043D66F2-6DA9-4EB1-812C-4AFC3D8B1321}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E0994C9-EE87-4F16-B463-9A2F985C91CA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C6B8FEA-1C34-4EE6-A93F-996DE941656D}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B7D916E1-A8F3-4CBB-9891-44D5EC851B60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0F23003-AD15-4CBB-BA23-E0F14241477C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{940D1D4B-759C-43B5-9BC1-25DB78119A2E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF06E9D2-E3D2-4656-961A-E8B02ED5147E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E852AE76-75E3-4540-98B0-170D3866D96E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94561AAB-BC6A-469B-905F-6B9A7BEA0089}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
